--- a/ELECTION ANALYSIS/Dataset Prep.xlsx
+++ b/ELECTION ANALYSIS/Dataset Prep.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHROMIUM\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHROMIUM\Desktop\DATA SCIENCE\DATA ANALYSIS PROJECTS\ELECTION ANALYSIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F9EB7B-57B5-4054-BE40-EEC04D40FDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D06EB2-5793-442A-B494-CD3404F2EF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="175">
   <si>
     <t>S.N.</t>
   </si>
@@ -147,6 +147,417 @@
   </si>
   <si>
     <t>VUYAKA NIREEKSHAN (V. CHENCHU)</t>
+  </si>
+  <si>
+    <t>KINJARAPU RAMMOHAN NAIDU</t>
+  </si>
+  <si>
+    <t>Telugu Desam</t>
+  </si>
+  <si>
+    <t>TILAK PERADA</t>
+  </si>
+  <si>
+    <t>PEDADA PARAMESWARA RAO</t>
+  </si>
+  <si>
+    <t>Indian National Congress</t>
+  </si>
+  <si>
+    <t>SANAPALA SRAVAN KUMAR</t>
+  </si>
+  <si>
+    <t>NAIDUGARI RAJASEKHAR</t>
+  </si>
+  <si>
+    <t>VABA YOGESWARA RAO</t>
+  </si>
+  <si>
+    <t>BETHA VIVEKANANDA MAHARAJ</t>
+  </si>
+  <si>
+    <t>YEDDU LAKSHMINARAYANA</t>
+  </si>
+  <si>
+    <t>BORUBADRA CHANDRAKALA</t>
+  </si>
+  <si>
+    <t>Bharatha Chaitanya Yuvajana Party</t>
+  </si>
+  <si>
+    <t>IPPILI SEETHARAJU</t>
+  </si>
+  <si>
+    <t>KAYA DURGARAO</t>
+  </si>
+  <si>
+    <t>Navarang Congress Party</t>
+  </si>
+  <si>
+    <t>CHELLURI DANIYAL</t>
+  </si>
+  <si>
+    <t>BOMMALI TIRUPATI RAO</t>
+  </si>
+  <si>
+    <t>Pyramid Party of India</t>
+  </si>
+  <si>
+    <t>Srikakulam</t>
+  </si>
+  <si>
+    <t>Vizianagaram</t>
+  </si>
+  <si>
+    <t>APPALANAIDU KALISETTI</t>
+  </si>
+  <si>
+    <t>BELLANA CHANDRASEKHAR</t>
+  </si>
+  <si>
+    <t>BOBBILI SRINU</t>
+  </si>
+  <si>
+    <t>PEERUBANDI PRAKASH RAO</t>
+  </si>
+  <si>
+    <t>VELURI VENKATA TRINADHARAO</t>
+  </si>
+  <si>
+    <t>ALLU SRIRAMULU</t>
+  </si>
+  <si>
+    <t>SIYYADULA YELLA RAO</t>
+  </si>
+  <si>
+    <t>SRINIVASA RAO SAMBHANA</t>
+  </si>
+  <si>
+    <t>Yuga Thulasi Party</t>
+  </si>
+  <si>
+    <t>MARISERLA KRISHNAMURTHY NAIDU</t>
+  </si>
+  <si>
+    <t>VANGAPANDU MAHESWARA RAO</t>
+  </si>
+  <si>
+    <t>Naba Bharata Nirmana Seva Party</t>
+  </si>
+  <si>
+    <t>CHINNAM ARUNA KUMAR</t>
+  </si>
+  <si>
+    <t>Jaibhim Rao Bharat Party</t>
+  </si>
+  <si>
+    <t>ATCHIYYA NAIDU SAMIREDDY</t>
+  </si>
+  <si>
+    <t>Samajwadi Party</t>
+  </si>
+  <si>
+    <t>ADINARAYANA TADDI</t>
+  </si>
+  <si>
+    <t>P V A ANANDA SAGAR</t>
+  </si>
+  <si>
+    <t>SAKHINETI ANANTHA RAJU</t>
+  </si>
+  <si>
+    <t>Visakhapatnam</t>
+  </si>
+  <si>
+    <t>SRIBHARAT MATHUKUMILI</t>
+  </si>
+  <si>
+    <t>JHANSI LAKSHMI. BOTCHA.</t>
+  </si>
+  <si>
+    <t>P. SATYA REDDY</t>
+  </si>
+  <si>
+    <t>K.A. PAUL</t>
+  </si>
+  <si>
+    <t>Praja Shanthi Party</t>
+  </si>
+  <si>
+    <t>PEDAPENKI SIVA PRASADA RAO</t>
+  </si>
+  <si>
+    <t>BIKKAVOLU. CHALAMAJI</t>
+  </si>
+  <si>
+    <t>V.N. SATYA NARAYANA</t>
+  </si>
+  <si>
+    <t>Rashtriya Praja Congress (Secular)</t>
+  </si>
+  <si>
+    <t>ARUNA SRI MURALA</t>
+  </si>
+  <si>
+    <t>VASUPILLI SURESH</t>
+  </si>
+  <si>
+    <t>SONDI KRISHNA.</t>
+  </si>
+  <si>
+    <t>ANDUKURI VIJAYA BHASKAR</t>
+  </si>
+  <si>
+    <t>DR. GANAPATHI KONGARAPU.</t>
+  </si>
+  <si>
+    <t>Republican Party of India (A)</t>
+  </si>
+  <si>
+    <t>BANNA. RAMESH</t>
+  </si>
+  <si>
+    <t>Dalita Bahujana Party</t>
+  </si>
+  <si>
+    <t>P. SATYA VANI</t>
+  </si>
+  <si>
+    <t>DURGA PRASAD. GUNTU</t>
+  </si>
+  <si>
+    <t>Bhartiya Rashtriya Dal</t>
+  </si>
+  <si>
+    <t>CHAPPIDI RAMU</t>
+  </si>
+  <si>
+    <t>M.G.M. KHAN</t>
+  </si>
+  <si>
+    <t>SHANKAR DEVARA YADAV</t>
+  </si>
+  <si>
+    <t>VENU MADHAV KARRI</t>
+  </si>
+  <si>
+    <t>DR. ACHUTHA BALAJI YADAV (MURAPALA)</t>
+  </si>
+  <si>
+    <t>THOTA VENKATA SAI MUKUND</t>
+  </si>
+  <si>
+    <t>Praja Prasthanam Party</t>
+  </si>
+  <si>
+    <t>PIDIDHI APPARAO</t>
+  </si>
+  <si>
+    <t>G.A.N. ANAND</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>VADDI. HARI GANESH</t>
+  </si>
+  <si>
+    <t>JANARDHAN PONNADA.</t>
+  </si>
+  <si>
+    <t>GANAPATHI. JAGADEESWARA RAO (JAGADEESH)</t>
+  </si>
+  <si>
+    <t>Jai Maha Bharath Party</t>
+  </si>
+  <si>
+    <t>JALADI VIJAYA KUMARI</t>
+  </si>
+  <si>
+    <t>CHINTADA SURYAM</t>
+  </si>
+  <si>
+    <t>GANDIKOTA RAJESH</t>
+  </si>
+  <si>
+    <t>Navataram Party</t>
+  </si>
+  <si>
+    <t>KOLLI NAGA RAJU</t>
+  </si>
+  <si>
+    <t>METTA RAMA RAO</t>
+  </si>
+  <si>
+    <t>LAGUDU. GOVINDA RAO</t>
+  </si>
+  <si>
+    <t>MALLA SRAVANI</t>
+  </si>
+  <si>
+    <t>C.M.RAMESH</t>
+  </si>
+  <si>
+    <t>BUDI MUTYALA NAIDU</t>
+  </si>
+  <si>
+    <t>VEGI VENKATESH</t>
+  </si>
+  <si>
+    <t>PALAKA SREERAMA MURTHY</t>
+  </si>
+  <si>
+    <t>VANKAYALA RAMACHANDRA RAO</t>
+  </si>
+  <si>
+    <t>LOVARAJU SIDDHA</t>
+  </si>
+  <si>
+    <t>KRISHNA SWAROOP VADLAMURI</t>
+  </si>
+  <si>
+    <t>GARA SURYA RAO</t>
+  </si>
+  <si>
+    <t>APPALA RAJU NAMMI</t>
+  </si>
+  <si>
+    <t>NAGESWARA RAO PETLA</t>
+  </si>
+  <si>
+    <t>ADARI SARAT CHANDRA</t>
+  </si>
+  <si>
+    <t>VIJAYA LAKSHMI KARRI</t>
+  </si>
+  <si>
+    <t>DR. THUMMAPALA HARI SHANKAR</t>
+  </si>
+  <si>
+    <t>JUNNURI J SRINIVAS</t>
+  </si>
+  <si>
+    <t>APPALANAIDU TUMMAGUNTA</t>
+  </si>
+  <si>
+    <t>Anakapalle</t>
+  </si>
+  <si>
+    <t>Kakinada</t>
+  </si>
+  <si>
+    <t>TANGELLA UDAY SRINIVAS (TEA TIME UDAY)</t>
+  </si>
+  <si>
+    <t>Janasena Party</t>
+  </si>
+  <si>
+    <t>CHALAMALASETTY SUNIL</t>
+  </si>
+  <si>
+    <t>MALLIPUDI MANGAPATI PALLAM RAJU</t>
+  </si>
+  <si>
+    <t>UDAY</t>
+  </si>
+  <si>
+    <t>KANDREGULA NARASIMHAM</t>
+  </si>
+  <si>
+    <t>DR ANUSHA YADAV</t>
+  </si>
+  <si>
+    <t>TANGELLA SRINIVASU</t>
+  </si>
+  <si>
+    <t>Jatiya Jana Sena Party</t>
+  </si>
+  <si>
+    <t>YEDIDA VARA PRASAD KUMAR</t>
+  </si>
+  <si>
+    <t>BUGATHA BANGARRAO</t>
+  </si>
+  <si>
+    <t>Communist Party of India (Marxist-Leninist) (Liberation)</t>
+  </si>
+  <si>
+    <t>SUDHA VEERA GANESH</t>
+  </si>
+  <si>
+    <t>BHAVANI SANKAR PRASAD MERLA</t>
+  </si>
+  <si>
+    <t>YENUGUPALLI KRISHNA</t>
+  </si>
+  <si>
+    <t>BODDETI APPARAO</t>
+  </si>
+  <si>
+    <t>NEELAKANTAM DONAM</t>
+  </si>
+  <si>
+    <t>PASUPULETI S.V.S.BHUSHANAM</t>
+  </si>
+  <si>
+    <t>Amalapuram (SC)</t>
+  </si>
+  <si>
+    <t>G M HARISH (BALAYOGI)</t>
+  </si>
+  <si>
+    <t>RAPAKA VARAPRASADA RAO</t>
+  </si>
+  <si>
+    <t>GOUTHAM JANGA</t>
+  </si>
+  <si>
+    <t>DORABABU YALLA</t>
+  </si>
+  <si>
+    <t>KATRU NAGA BABU</t>
+  </si>
+  <si>
+    <t>Telugu Nava Garjana Party</t>
+  </si>
+  <si>
+    <t>VADDI LALITH KUMAR</t>
+  </si>
+  <si>
+    <t>MAKEY DAVY PRASAD</t>
+  </si>
+  <si>
+    <t>GUDE VENKATESWARULU</t>
+  </si>
+  <si>
+    <t>RAMESH JILLELLA</t>
+  </si>
+  <si>
+    <t>YALANGI RAMESH</t>
+  </si>
+  <si>
+    <t>MATHA KRISHNA</t>
+  </si>
+  <si>
+    <t>GIDDI JNANA PRAKASA RAO</t>
+  </si>
+  <si>
+    <t>Republican Party of India</t>
+  </si>
+  <si>
+    <t>YADLA RAJESH</t>
+  </si>
+  <si>
+    <t>Liberation Congress Party</t>
+  </si>
+  <si>
+    <t>KAPA KALYAN</t>
+  </si>
+  <si>
+    <t>PATHURI RAMESH</t>
+  </si>
+  <si>
+    <t>Peoples Party of India (Democratic)</t>
   </si>
 </sst>
 </file>
@@ -438,10 +849,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -941,57 +1352,3590 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="5">
+        <v>734501</v>
+      </c>
+      <c r="E16" s="5">
+        <v>19827</v>
+      </c>
+      <c r="F16" s="5">
+        <v>754328</v>
+      </c>
+      <c r="G16" s="5">
+        <v>61.05</v>
+      </c>
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="5">
+        <v>420394</v>
+      </c>
+      <c r="E17" s="5">
+        <v>6033</v>
+      </c>
+      <c r="F17" s="5">
+        <v>426427</v>
+      </c>
+      <c r="G17" s="5">
+        <v>34.51</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="5">
+        <v>6724</v>
+      </c>
+      <c r="E18" s="5">
+        <v>448</v>
+      </c>
+      <c r="F18" s="5">
+        <v>7172</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5">
+        <v>5950</v>
+      </c>
+      <c r="E19" s="5">
+        <v>8</v>
+      </c>
+      <c r="F19" s="5">
+        <v>5958</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="5">
+        <v>4661</v>
+      </c>
+      <c r="E20" s="5">
+        <v>81</v>
+      </c>
+      <c r="F20" s="5">
+        <v>4742</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="5">
+        <v>3472</v>
+      </c>
+      <c r="E21" s="5">
+        <v>126</v>
+      </c>
+      <c r="F21" s="5">
+        <v>3598</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2523</v>
+      </c>
+      <c r="E22" s="5">
+        <v>13</v>
+      </c>
+      <c r="F22" s="5">
+        <v>2536</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1598</v>
+      </c>
+      <c r="E23" s="5">
+        <v>7</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1605</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1315</v>
+      </c>
+      <c r="E24" s="5">
+        <v>42</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1357</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1080</v>
+      </c>
+      <c r="E25" s="5">
+        <v>50</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1130</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="5">
+        <v>811</v>
+      </c>
+      <c r="E26" s="5">
+        <v>7</v>
+      </c>
+      <c r="F26" s="5">
+        <v>818</v>
+      </c>
+      <c r="G26" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="5">
+        <v>796</v>
+      </c>
+      <c r="E27" s="5">
+        <v>20</v>
+      </c>
+      <c r="F27" s="5">
+        <v>816</v>
+      </c>
+      <c r="G27" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="5">
+        <v>589</v>
+      </c>
+      <c r="E28" s="5">
+        <v>5</v>
+      </c>
+      <c r="F28" s="5">
+        <v>594</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="H28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="5">
+        <v>24498</v>
+      </c>
+      <c r="E29" s="5">
+        <v>107</v>
+      </c>
+      <c r="F29" s="5">
+        <v>24605</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1.99</v>
+      </c>
+      <c r="H29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="5">
+        <v>729284</v>
+      </c>
+      <c r="E30" s="5">
+        <v>13829</v>
+      </c>
+      <c r="F30" s="5">
+        <v>743113</v>
+      </c>
+      <c r="G30" s="5">
+        <v>57.2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" t="s">
+        <v>57</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="5">
+        <v>487691</v>
+      </c>
+      <c r="E31" s="5">
+        <v>6071</v>
+      </c>
+      <c r="F31" s="5">
+        <v>493762</v>
+      </c>
+      <c r="G31" s="5">
+        <v>38</v>
+      </c>
+      <c r="H31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="5">
+        <v>10270</v>
+      </c>
+      <c r="E32" s="5">
+        <v>353</v>
+      </c>
+      <c r="F32" s="5">
+        <v>10623</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="5">
+        <v>7985</v>
+      </c>
+      <c r="E33" s="5">
+        <v>53</v>
+      </c>
+      <c r="F33" s="5">
+        <v>8038</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="H33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" t="s">
+        <v>57</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="5">
+        <v>4146</v>
+      </c>
+      <c r="E34" s="5">
+        <v>6</v>
+      </c>
+      <c r="F34" s="5">
+        <v>4152</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="H34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" t="s">
+        <v>57</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="5">
+        <v>3396</v>
+      </c>
+      <c r="E35" s="5">
+        <v>5</v>
+      </c>
+      <c r="F35" s="5">
+        <v>3401</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="H35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" t="s">
+        <v>57</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="5">
+        <v>3105</v>
+      </c>
+      <c r="E36" s="5">
+        <v>2</v>
+      </c>
+      <c r="F36" s="5">
+        <v>3107</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="H36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" t="s">
+        <v>57</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1758</v>
+      </c>
+      <c r="E37" s="5">
+        <v>3</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1761</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H37" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" t="s">
+        <v>57</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1617</v>
+      </c>
+      <c r="E38" s="5">
+        <v>12</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1629</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="H38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" t="s">
+        <v>57</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1544</v>
+      </c>
+      <c r="E39" s="5">
+        <v>9</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1553</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="H39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" t="s">
+        <v>57</v>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1401</v>
+      </c>
+      <c r="E40" s="5">
+        <v>10</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1411</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="H40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" t="s">
+        <v>57</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1059</v>
+      </c>
+      <c r="E41" s="5">
+        <v>11</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1070</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="H41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" t="s">
+        <v>57</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="5">
+        <v>855</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1</v>
+      </c>
+      <c r="F42" s="5">
+        <v>856</v>
+      </c>
+      <c r="G42" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H42" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" t="s">
+        <v>57</v>
+      </c>
+      <c r="K42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="5">
+        <v>787</v>
+      </c>
+      <c r="E43" s="5">
+        <v>4</v>
+      </c>
+      <c r="F43" s="5">
+        <v>791</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="H43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" t="s">
+        <v>57</v>
+      </c>
+      <c r="K43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="5">
+        <v>715</v>
+      </c>
+      <c r="E44" s="5">
+        <v>10</v>
+      </c>
+      <c r="F44" s="5">
+        <v>725</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="H44" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" t="s">
+        <v>57</v>
+      </c>
+      <c r="K44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="5">
+        <v>23097</v>
+      </c>
+      <c r="E45" s="5">
+        <v>153</v>
+      </c>
+      <c r="F45" s="5">
+        <v>23250</v>
+      </c>
+      <c r="G45" s="5">
+        <v>1.79</v>
+      </c>
+      <c r="H45" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" t="s">
+        <v>57</v>
+      </c>
+      <c r="K45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="5">
+        <v>893884</v>
+      </c>
+      <c r="E46" s="5">
+        <v>13583</v>
+      </c>
+      <c r="F46" s="5">
+        <v>907467</v>
+      </c>
+      <c r="G46" s="5">
+        <v>65.42</v>
+      </c>
+      <c r="H46" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" t="s">
+        <v>77</v>
+      </c>
+      <c r="K46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="5">
+        <v>397821</v>
+      </c>
+      <c r="E47" s="5">
+        <v>5399</v>
+      </c>
+      <c r="F47" s="5">
+        <v>403220</v>
+      </c>
+      <c r="G47" s="5">
+        <v>29.07</v>
+      </c>
+      <c r="H47" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" t="s">
+        <v>77</v>
+      </c>
+      <c r="K47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="5">
+        <v>29430</v>
+      </c>
+      <c r="E48" s="5">
+        <v>837</v>
+      </c>
+      <c r="F48" s="5">
+        <v>30267</v>
+      </c>
+      <c r="G48" s="5">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H48" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" t="s">
+        <v>77</v>
+      </c>
+      <c r="K48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="5">
+        <v>7529</v>
+      </c>
+      <c r="E49" s="5">
+        <v>167</v>
+      </c>
+      <c r="F49" s="5">
+        <v>7696</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H49" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" t="s">
+        <v>77</v>
+      </c>
+      <c r="K49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="5">
+        <v>6006</v>
+      </c>
+      <c r="E50" s="5">
+        <v>85</v>
+      </c>
+      <c r="F50" s="5">
+        <v>6091</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="H50" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" t="s">
+        <v>77</v>
+      </c>
+      <c r="K50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="5">
+        <v>4883</v>
+      </c>
+      <c r="E51" s="5">
+        <v>1</v>
+      </c>
+      <c r="F51" s="5">
+        <v>4884</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="H51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" t="s">
+        <v>77</v>
+      </c>
+      <c r="K51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" s="5">
+        <v>2534</v>
+      </c>
+      <c r="E52" s="5">
+        <v>3</v>
+      </c>
+      <c r="F52" s="5">
+        <v>2537</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="H52" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" t="s">
+        <v>77</v>
+      </c>
+      <c r="K52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="5">
+        <v>1991</v>
+      </c>
+      <c r="E53" s="5">
+        <v>2</v>
+      </c>
+      <c r="F53" s="5">
+        <v>1993</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H53" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" t="s">
+        <v>77</v>
+      </c>
+      <c r="K53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="5">
+        <v>1931</v>
+      </c>
+      <c r="E54" s="5">
+        <v>2</v>
+      </c>
+      <c r="F54" s="5">
+        <v>1933</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H54" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" t="s">
+        <v>77</v>
+      </c>
+      <c r="K54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="5">
+        <v>1811</v>
+      </c>
+      <c r="E55" s="5">
+        <v>7</v>
+      </c>
+      <c r="F55" s="5">
+        <v>1818</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="H55" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" t="s">
+        <v>77</v>
+      </c>
+      <c r="K55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="5">
+        <v>1098</v>
+      </c>
+      <c r="E56" s="5">
+        <v>11</v>
+      </c>
+      <c r="F56" s="5">
+        <v>1109</v>
+      </c>
+      <c r="G56" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="H56" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" t="s">
+        <v>77</v>
+      </c>
+      <c r="K56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" s="5">
+        <v>944</v>
+      </c>
+      <c r="E57" s="5">
+        <v>6</v>
+      </c>
+      <c r="F57" s="5">
+        <v>950</v>
+      </c>
+      <c r="G57" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H57" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" t="s">
+        <v>77</v>
+      </c>
+      <c r="K57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" s="5">
+        <v>941</v>
+      </c>
+      <c r="E58" s="5">
+        <v>7</v>
+      </c>
+      <c r="F58" s="5">
+        <v>948</v>
+      </c>
+      <c r="G58" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H58" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" t="s">
+        <v>77</v>
+      </c>
+      <c r="K58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" s="5">
+        <v>875</v>
+      </c>
+      <c r="E59" s="5">
+        <v>7</v>
+      </c>
+      <c r="F59" s="5">
+        <v>882</v>
+      </c>
+      <c r="G59" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="H59" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" t="s">
+        <v>77</v>
+      </c>
+      <c r="K59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" s="5">
+        <v>760</v>
+      </c>
+      <c r="E60" s="5">
+        <v>7</v>
+      </c>
+      <c r="F60" s="5">
+        <v>767</v>
+      </c>
+      <c r="G60" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="H60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" t="s">
+        <v>77</v>
+      </c>
+      <c r="K60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="5">
+        <v>756</v>
+      </c>
+      <c r="E61" s="5">
+        <v>1</v>
+      </c>
+      <c r="F61" s="5">
+        <v>757</v>
+      </c>
+      <c r="G61" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="H61" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" t="s">
+        <v>77</v>
+      </c>
+      <c r="K61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="5">
+        <v>738</v>
+      </c>
+      <c r="E62" s="5">
+        <v>4</v>
+      </c>
+      <c r="F62" s="5">
+        <v>742</v>
+      </c>
+      <c r="G62" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="H62" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" t="s">
+        <v>77</v>
+      </c>
+      <c r="K62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="5">
+        <v>656</v>
+      </c>
+      <c r="E63" s="5">
+        <v>5</v>
+      </c>
+      <c r="F63" s="5">
+        <v>661</v>
+      </c>
+      <c r="G63" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="H63" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" t="s">
+        <v>77</v>
+      </c>
+      <c r="K63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="5">
+        <v>646</v>
+      </c>
+      <c r="E64" s="5">
+        <v>1</v>
+      </c>
+      <c r="F64" s="5">
+        <v>647</v>
+      </c>
+      <c r="G64" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="H64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" t="s">
+        <v>77</v>
+      </c>
+      <c r="K64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="5">
+        <v>628</v>
+      </c>
+      <c r="E65" s="5">
+        <v>10</v>
+      </c>
+      <c r="F65" s="5">
+        <v>638</v>
+      </c>
+      <c r="G65" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="H65" t="s">
+        <v>11</v>
+      </c>
+      <c r="I65" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" t="s">
+        <v>77</v>
+      </c>
+      <c r="K65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D66" s="5">
+        <v>628</v>
+      </c>
+      <c r="E66" s="5">
+        <v>5</v>
+      </c>
+      <c r="F66" s="5">
+        <v>633</v>
+      </c>
+      <c r="G66" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="H66" t="s">
+        <v>11</v>
+      </c>
+      <c r="I66" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" t="s">
+        <v>77</v>
+      </c>
+      <c r="K66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="5">
+        <v>576</v>
+      </c>
+      <c r="E67" s="5">
+        <v>4</v>
+      </c>
+      <c r="F67" s="5">
+        <v>580</v>
+      </c>
+      <c r="G67" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="H67" t="s">
+        <v>11</v>
+      </c>
+      <c r="I67" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" t="s">
+        <v>77</v>
+      </c>
+      <c r="K67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="5">
+        <v>543</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F68" s="5">
+        <v>543</v>
+      </c>
+      <c r="G68" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="H68" t="s">
+        <v>11</v>
+      </c>
+      <c r="I68" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" t="s">
+        <v>77</v>
+      </c>
+      <c r="K68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="5">
+        <v>518</v>
+      </c>
+      <c r="E69" s="5">
+        <v>2</v>
+      </c>
+      <c r="F69" s="5">
+        <v>520</v>
+      </c>
+      <c r="G69" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="H69" t="s">
+        <v>11</v>
+      </c>
+      <c r="I69" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" t="s">
+        <v>77</v>
+      </c>
+      <c r="K69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="5">
+        <v>499</v>
+      </c>
+      <c r="E70" s="5">
+        <v>1</v>
+      </c>
+      <c r="F70" s="5">
+        <v>500</v>
+      </c>
+      <c r="G70" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="H70" t="s">
+        <v>11</v>
+      </c>
+      <c r="I70" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" t="s">
+        <v>77</v>
+      </c>
+      <c r="K70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D71" s="5">
+        <v>494</v>
+      </c>
+      <c r="E71" s="5">
+        <v>6</v>
+      </c>
+      <c r="F71" s="5">
+        <v>500</v>
+      </c>
+      <c r="G71" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="H71" t="s">
+        <v>11</v>
+      </c>
+      <c r="I71" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" t="s">
+        <v>77</v>
+      </c>
+      <c r="K71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D72" s="5">
+        <v>463</v>
+      </c>
+      <c r="E72" s="5">
+        <v>3</v>
+      </c>
+      <c r="F72" s="5">
+        <v>466</v>
+      </c>
+      <c r="G72" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="H72" t="s">
+        <v>11</v>
+      </c>
+      <c r="I72" t="s">
+        <v>12</v>
+      </c>
+      <c r="J72" t="s">
+        <v>77</v>
+      </c>
+      <c r="K72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D73" s="5">
+        <v>443</v>
+      </c>
+      <c r="E73" s="5">
+        <v>5</v>
+      </c>
+      <c r="F73" s="5">
+        <v>448</v>
+      </c>
+      <c r="G73" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="H73" t="s">
+        <v>11</v>
+      </c>
+      <c r="I73" t="s">
+        <v>12</v>
+      </c>
+      <c r="J73" t="s">
+        <v>77</v>
+      </c>
+      <c r="K73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D74" s="5">
+        <v>392</v>
+      </c>
+      <c r="E74" s="5">
+        <v>1</v>
+      </c>
+      <c r="F74" s="5">
+        <v>393</v>
+      </c>
+      <c r="G74" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="H74" t="s">
+        <v>11</v>
+      </c>
+      <c r="I74" t="s">
+        <v>12</v>
+      </c>
+      <c r="J74" t="s">
+        <v>77</v>
+      </c>
+      <c r="K74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="5">
+        <v>322</v>
+      </c>
+      <c r="E75" s="5">
+        <v>7</v>
+      </c>
+      <c r="F75" s="5">
+        <v>329</v>
+      </c>
+      <c r="G75" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="H75" t="s">
+        <v>11</v>
+      </c>
+      <c r="I75" t="s">
+        <v>12</v>
+      </c>
+      <c r="J75" t="s">
+        <v>77</v>
+      </c>
+      <c r="K75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="5">
+        <v>320</v>
+      </c>
+      <c r="E76" s="5">
+        <v>6</v>
+      </c>
+      <c r="F76" s="5">
+        <v>326</v>
+      </c>
+      <c r="G76" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="H76" t="s">
+        <v>11</v>
+      </c>
+      <c r="I76" t="s">
+        <v>12</v>
+      </c>
+      <c r="J76" t="s">
+        <v>77</v>
+      </c>
+      <c r="K76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="5">
+        <v>293</v>
+      </c>
+      <c r="E77" s="5">
+        <v>1</v>
+      </c>
+      <c r="F77" s="5">
+        <v>294</v>
+      </c>
+      <c r="G77" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="H77" t="s">
+        <v>11</v>
+      </c>
+      <c r="I77" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77" t="s">
+        <v>77</v>
+      </c>
+      <c r="K77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="5">
+        <v>271</v>
+      </c>
+      <c r="E78" s="5">
+        <v>2</v>
+      </c>
+      <c r="F78" s="5">
+        <v>273</v>
+      </c>
+      <c r="G78" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="H78" t="s">
+        <v>11</v>
+      </c>
+      <c r="I78" t="s">
+        <v>12</v>
+      </c>
+      <c r="J78" t="s">
+        <v>77</v>
+      </c>
+      <c r="K78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="5">
+        <v>5171</v>
+      </c>
+      <c r="E79" s="5">
+        <v>142</v>
+      </c>
+      <c r="F79" s="5">
+        <v>5313</v>
+      </c>
+      <c r="G79" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="H79" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" t="s">
+        <v>12</v>
+      </c>
+      <c r="J79" t="s">
+        <v>77</v>
+      </c>
+      <c r="K79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="5">
+        <v>750027</v>
+      </c>
+      <c r="E80" s="5">
+        <v>12042</v>
+      </c>
+      <c r="F80" s="5">
+        <v>762069</v>
+      </c>
+      <c r="G80" s="5">
+        <v>57.5</v>
+      </c>
+      <c r="H80" t="s">
+        <v>11</v>
+      </c>
+      <c r="I80" t="s">
+        <v>12</v>
+      </c>
+      <c r="J80" t="s">
+        <v>135</v>
+      </c>
+      <c r="K80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="5">
+        <v>459762</v>
+      </c>
+      <c r="E81" s="5">
+        <v>5777</v>
+      </c>
+      <c r="F81" s="5">
+        <v>465539</v>
+      </c>
+      <c r="G81" s="5">
+        <v>35.130000000000003</v>
+      </c>
+      <c r="H81" t="s">
+        <v>11</v>
+      </c>
+      <c r="I81" t="s">
+        <v>12</v>
+      </c>
+      <c r="J81" t="s">
+        <v>135</v>
+      </c>
+      <c r="K81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D82" s="5">
+        <v>24833</v>
+      </c>
+      <c r="E82" s="5">
+        <v>818</v>
+      </c>
+      <c r="F82" s="5">
+        <v>25651</v>
+      </c>
+      <c r="G82" s="5">
+        <v>1.94</v>
+      </c>
+      <c r="H82" t="s">
+        <v>11</v>
+      </c>
+      <c r="I82" t="s">
+        <v>12</v>
+      </c>
+      <c r="J82" t="s">
+        <v>135</v>
+      </c>
+      <c r="K82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="5">
+        <v>19082</v>
+      </c>
+      <c r="E83" s="5">
+        <v>75</v>
+      </c>
+      <c r="F83" s="5">
+        <v>19157</v>
+      </c>
+      <c r="G83" s="5">
+        <v>1.45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>11</v>
+      </c>
+      <c r="I83" t="s">
+        <v>12</v>
+      </c>
+      <c r="J83" t="s">
+        <v>135</v>
+      </c>
+      <c r="K83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="5">
+        <v>4001</v>
+      </c>
+      <c r="E84" s="5">
+        <v>1</v>
+      </c>
+      <c r="F84" s="5">
+        <v>4002</v>
+      </c>
+      <c r="G84" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="H84" t="s">
+        <v>11</v>
+      </c>
+      <c r="I84" t="s">
+        <v>12</v>
+      </c>
+      <c r="J84" t="s">
+        <v>135</v>
+      </c>
+      <c r="K84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="5">
+        <v>3845</v>
+      </c>
+      <c r="E85" s="5">
+        <v>7</v>
+      </c>
+      <c r="F85" s="5">
+        <v>3852</v>
+      </c>
+      <c r="G85" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H85" t="s">
+        <v>11</v>
+      </c>
+      <c r="I85" t="s">
+        <v>12</v>
+      </c>
+      <c r="J85" t="s">
+        <v>135</v>
+      </c>
+      <c r="K85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D86" s="5">
+        <v>3549</v>
+      </c>
+      <c r="E86" s="5">
+        <v>8</v>
+      </c>
+      <c r="F86" s="5">
+        <v>3557</v>
+      </c>
+      <c r="G86" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="H86" t="s">
+        <v>11</v>
+      </c>
+      <c r="I86" t="s">
+        <v>12</v>
+      </c>
+      <c r="J86" t="s">
+        <v>135</v>
+      </c>
+      <c r="K86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="5">
+        <v>3116</v>
+      </c>
+      <c r="E87" s="5">
+        <v>8</v>
+      </c>
+      <c r="F87" s="5">
+        <v>3124</v>
+      </c>
+      <c r="G87" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="H87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I87" t="s">
+        <v>12</v>
+      </c>
+      <c r="J87" t="s">
+        <v>135</v>
+      </c>
+      <c r="K87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D88" s="5">
+        <v>2589</v>
+      </c>
+      <c r="E88" s="5">
+        <v>30</v>
+      </c>
+      <c r="F88" s="5">
+        <v>2619</v>
+      </c>
+      <c r="G88" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H88" t="s">
+        <v>11</v>
+      </c>
+      <c r="I88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J88" t="s">
+        <v>135</v>
+      </c>
+      <c r="K88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="5">
+        <v>2179</v>
+      </c>
+      <c r="E89" s="5">
+        <v>5</v>
+      </c>
+      <c r="F89" s="5">
+        <v>2184</v>
+      </c>
+      <c r="G89" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="H89" t="s">
+        <v>11</v>
+      </c>
+      <c r="I89" t="s">
+        <v>12</v>
+      </c>
+      <c r="J89" t="s">
+        <v>135</v>
+      </c>
+      <c r="K89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" s="5">
+        <v>1886</v>
+      </c>
+      <c r="E90" s="5">
+        <v>27</v>
+      </c>
+      <c r="F90" s="5">
+        <v>1913</v>
+      </c>
+      <c r="G90" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H90" t="s">
+        <v>11</v>
+      </c>
+      <c r="I90" t="s">
+        <v>12</v>
+      </c>
+      <c r="J90" t="s">
+        <v>135</v>
+      </c>
+      <c r="K90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D91" s="5">
+        <v>1578</v>
+      </c>
+      <c r="E91" s="5">
+        <v>13</v>
+      </c>
+      <c r="F91" s="5">
+        <v>1591</v>
+      </c>
+      <c r="G91" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="H91" t="s">
+        <v>11</v>
+      </c>
+      <c r="I91" t="s">
+        <v>12</v>
+      </c>
+      <c r="J91" t="s">
+        <v>135</v>
+      </c>
+      <c r="K91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="5">
+        <v>1567</v>
+      </c>
+      <c r="E92" s="5">
+        <v>9</v>
+      </c>
+      <c r="F92" s="5">
+        <v>1576</v>
+      </c>
+      <c r="G92" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="H92" t="s">
+        <v>11</v>
+      </c>
+      <c r="I92" t="s">
+        <v>12</v>
+      </c>
+      <c r="J92" t="s">
+        <v>135</v>
+      </c>
+      <c r="K92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="5">
+        <v>1195</v>
+      </c>
+      <c r="E93" s="5">
+        <v>6</v>
+      </c>
+      <c r="F93" s="5">
+        <v>1201</v>
+      </c>
+      <c r="G93" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="H93" t="s">
+        <v>11</v>
+      </c>
+      <c r="I93" t="s">
+        <v>12</v>
+      </c>
+      <c r="J93" t="s">
+        <v>135</v>
+      </c>
+      <c r="K93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="5">
+        <v>1055</v>
+      </c>
+      <c r="E94" s="5">
+        <v>7</v>
+      </c>
+      <c r="F94" s="5">
+        <v>1062</v>
+      </c>
+      <c r="G94" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="H94" t="s">
+        <v>11</v>
+      </c>
+      <c r="I94" t="s">
+        <v>12</v>
+      </c>
+      <c r="J94" t="s">
+        <v>135</v>
+      </c>
+      <c r="K94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="5">
+        <v>26084</v>
+      </c>
+      <c r="E95" s="5">
+        <v>151</v>
+      </c>
+      <c r="F95" s="5">
+        <v>26235</v>
+      </c>
+      <c r="G95" s="5">
+        <v>1.98</v>
+      </c>
+      <c r="H95" t="s">
+        <v>11</v>
+      </c>
+      <c r="I95" t="s">
+        <v>12</v>
+      </c>
+      <c r="J95" t="s">
+        <v>135</v>
+      </c>
+      <c r="K95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D96" s="5">
+        <v>718971</v>
+      </c>
+      <c r="E96" s="5">
+        <v>10728</v>
+      </c>
+      <c r="F96" s="5">
+        <v>729699</v>
+      </c>
+      <c r="G96" s="5">
+        <v>54.87</v>
+      </c>
+      <c r="H96" t="s">
+        <v>11</v>
+      </c>
+      <c r="I96" t="s">
+        <v>12</v>
+      </c>
+      <c r="J96" t="s">
+        <v>136</v>
+      </c>
+      <c r="K96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" s="5">
+        <v>495188</v>
+      </c>
+      <c r="E97" s="5">
+        <v>5020</v>
+      </c>
+      <c r="F97" s="5">
+        <v>500208</v>
+      </c>
+      <c r="G97" s="5">
+        <v>37.619999999999997</v>
+      </c>
+      <c r="H97" t="s">
+        <v>11</v>
+      </c>
+      <c r="I97" t="s">
+        <v>12</v>
+      </c>
+      <c r="J97" t="s">
+        <v>136</v>
+      </c>
+      <c r="K97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D98" s="5">
+        <v>20258</v>
+      </c>
+      <c r="E98" s="5">
+        <v>851</v>
+      </c>
+      <c r="F98" s="5">
+        <v>21109</v>
+      </c>
+      <c r="G98" s="5">
+        <v>1.59</v>
+      </c>
+      <c r="H98" t="s">
+        <v>11</v>
+      </c>
+      <c r="I98" t="s">
+        <v>12</v>
+      </c>
+      <c r="J98" t="s">
+        <v>136</v>
+      </c>
+      <c r="K98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D99" s="5">
+        <v>15578</v>
+      </c>
+      <c r="E99" s="5">
+        <v>125</v>
+      </c>
+      <c r="F99" s="5">
+        <v>15703</v>
+      </c>
+      <c r="G99" s="5">
+        <v>1.18</v>
+      </c>
+      <c r="H99" t="s">
+        <v>11</v>
+      </c>
+      <c r="I99" t="s">
+        <v>12</v>
+      </c>
+      <c r="J99" t="s">
+        <v>136</v>
+      </c>
+      <c r="K99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="5">
+        <v>11916</v>
+      </c>
+      <c r="E100" s="5">
+        <v>63</v>
+      </c>
+      <c r="F100" s="5">
+        <v>11979</v>
+      </c>
+      <c r="G100" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H100" t="s">
+        <v>11</v>
+      </c>
+      <c r="I100" t="s">
+        <v>12</v>
+      </c>
+      <c r="J100" t="s">
+        <v>136</v>
+      </c>
+      <c r="K100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D101" s="5">
+        <v>9818</v>
+      </c>
+      <c r="E101" s="5">
+        <v>36</v>
+      </c>
+      <c r="F101" s="5">
+        <v>9854</v>
+      </c>
+      <c r="G101" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="H101" t="s">
+        <v>11</v>
+      </c>
+      <c r="I101" t="s">
+        <v>12</v>
+      </c>
+      <c r="J101" t="s">
+        <v>136</v>
+      </c>
+      <c r="K101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D102" s="5">
+        <v>6516</v>
+      </c>
+      <c r="E102" s="5">
+        <v>43</v>
+      </c>
+      <c r="F102" s="5">
+        <v>6559</v>
+      </c>
+      <c r="G102" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="H102" t="s">
+        <v>11</v>
+      </c>
+      <c r="I102" t="s">
+        <v>12</v>
+      </c>
+      <c r="J102" t="s">
+        <v>136</v>
+      </c>
+      <c r="K102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D103" s="5">
+        <v>3924</v>
+      </c>
+      <c r="E103" s="5">
+        <v>3</v>
+      </c>
+      <c r="F103" s="5">
+        <v>3927</v>
+      </c>
+      <c r="G103" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="H103" t="s">
+        <v>11</v>
+      </c>
+      <c r="I103" t="s">
+        <v>12</v>
+      </c>
+      <c r="J103" t="s">
+        <v>136</v>
+      </c>
+      <c r="K103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D104" s="5">
+        <v>2816</v>
+      </c>
+      <c r="E104" s="5">
+        <v>7</v>
+      </c>
+      <c r="F104" s="5">
+        <v>2823</v>
+      </c>
+      <c r="G104" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="H104" t="s">
+        <v>11</v>
+      </c>
+      <c r="I104" t="s">
+        <v>12</v>
+      </c>
+      <c r="J104" t="s">
+        <v>136</v>
+      </c>
+      <c r="K104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="5">
+        <v>2645</v>
+      </c>
+      <c r="E105" s="5">
+        <v>2</v>
+      </c>
+      <c r="F105" s="5">
+        <v>2647</v>
+      </c>
+      <c r="G105" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H105" t="s">
+        <v>11</v>
+      </c>
+      <c r="I105" t="s">
+        <v>12</v>
+      </c>
+      <c r="J105" t="s">
+        <v>136</v>
+      </c>
+      <c r="K105">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" s="5">
+        <v>1963</v>
+      </c>
+      <c r="E106" s="5">
+        <v>6</v>
+      </c>
+      <c r="F106" s="5">
+        <v>1969</v>
+      </c>
+      <c r="G106" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="H106" t="s">
+        <v>11</v>
+      </c>
+      <c r="I106" t="s">
+        <v>12</v>
+      </c>
+      <c r="J106" t="s">
+        <v>136</v>
+      </c>
+      <c r="K106">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D107" s="5">
+        <v>1762</v>
+      </c>
+      <c r="E107" s="5">
+        <v>18</v>
+      </c>
+      <c r="F107" s="5">
+        <v>1780</v>
+      </c>
+      <c r="G107" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="H107" t="s">
+        <v>11</v>
+      </c>
+      <c r="I107" t="s">
+        <v>12</v>
+      </c>
+      <c r="J107" t="s">
+        <v>136</v>
+      </c>
+      <c r="K107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="5">
+        <v>1687</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F108" s="5">
+        <v>1687</v>
+      </c>
+      <c r="G108" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="H108" t="s">
+        <v>11</v>
+      </c>
+      <c r="I108" t="s">
+        <v>12</v>
+      </c>
+      <c r="J108" t="s">
+        <v>136</v>
+      </c>
+      <c r="K108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" s="5">
+        <v>1401</v>
+      </c>
+      <c r="E109" s="5">
+        <v>11</v>
+      </c>
+      <c r="F109" s="5">
+        <v>1412</v>
+      </c>
+      <c r="G109" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="H109" t="s">
+        <v>11</v>
+      </c>
+      <c r="I109" t="s">
+        <v>12</v>
+      </c>
+      <c r="J109" t="s">
+        <v>136</v>
+      </c>
+      <c r="K109">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="5">
+        <v>1222</v>
+      </c>
+      <c r="E110" s="5">
+        <v>5</v>
+      </c>
+      <c r="F110" s="5">
+        <v>1227</v>
+      </c>
+      <c r="G110" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="H110" t="s">
+        <v>11</v>
+      </c>
+      <c r="I110" t="s">
+        <v>12</v>
+      </c>
+      <c r="J110" t="s">
+        <v>136</v>
+      </c>
+      <c r="K110">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" s="5">
+        <v>17105</v>
+      </c>
+      <c r="E111" s="5">
+        <v>115</v>
+      </c>
+      <c r="F111" s="5">
+        <v>17220</v>
+      </c>
+      <c r="G111" s="5">
+        <v>1.29</v>
+      </c>
+      <c r="H111" t="s">
+        <v>11</v>
+      </c>
+      <c r="I111" t="s">
+        <v>12</v>
+      </c>
+      <c r="J111" t="s">
+        <v>136</v>
+      </c>
+      <c r="K111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D112" s="5">
+        <v>786149</v>
+      </c>
+      <c r="E112" s="5">
+        <v>10832</v>
+      </c>
+      <c r="F112" s="5">
+        <v>796981</v>
+      </c>
+      <c r="G112" s="5">
+        <v>61.25</v>
+      </c>
+      <c r="H112" t="s">
+        <v>11</v>
+      </c>
+      <c r="I112" t="s">
+        <v>12</v>
+      </c>
+      <c r="J112" t="s">
+        <v>155</v>
+      </c>
+      <c r="K112">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" s="5">
+        <v>450362</v>
+      </c>
+      <c r="E113" s="5">
+        <v>4423</v>
+      </c>
+      <c r="F113" s="5">
+        <v>454785</v>
+      </c>
+      <c r="G113" s="5">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="H113" t="s">
+        <v>11</v>
+      </c>
+      <c r="I113" t="s">
+        <v>12</v>
+      </c>
+      <c r="J113" t="s">
+        <v>155</v>
+      </c>
+      <c r="K113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D114" s="5">
+        <v>14523</v>
+      </c>
+      <c r="E114" s="5">
+        <v>559</v>
+      </c>
+      <c r="F114" s="5">
+        <v>15082</v>
+      </c>
+      <c r="G114" s="5">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H114" t="s">
+        <v>11</v>
+      </c>
+      <c r="I114" t="s">
+        <v>12</v>
+      </c>
+      <c r="J114" t="s">
+        <v>155</v>
+      </c>
+      <c r="K114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="5">
+        <v>5202</v>
+      </c>
+      <c r="E115" s="5">
+        <v>186</v>
+      </c>
+      <c r="F115" s="5">
+        <v>5388</v>
+      </c>
+      <c r="G115" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="H115" t="s">
+        <v>11</v>
+      </c>
+      <c r="I115" t="s">
+        <v>12</v>
+      </c>
+      <c r="J115" t="s">
+        <v>155</v>
+      </c>
+      <c r="K115">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D116" s="5">
+        <v>3736</v>
+      </c>
+      <c r="E116" s="5">
+        <v>5</v>
+      </c>
+      <c r="F116" s="5">
+        <v>3741</v>
+      </c>
+      <c r="G116" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H116" t="s">
+        <v>11</v>
+      </c>
+      <c r="I116" t="s">
+        <v>12</v>
+      </c>
+      <c r="J116" t="s">
+        <v>155</v>
+      </c>
+      <c r="K116">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="5">
+        <v>2974</v>
+      </c>
+      <c r="E117" s="5">
+        <v>3</v>
+      </c>
+      <c r="F117" s="5">
+        <v>2977</v>
+      </c>
+      <c r="G117" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="H117" t="s">
+        <v>11</v>
+      </c>
+      <c r="I117" t="s">
+        <v>12</v>
+      </c>
+      <c r="J117" t="s">
+        <v>155</v>
+      </c>
+      <c r="K117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="5">
+        <v>2104</v>
+      </c>
+      <c r="E118" s="5">
+        <v>7</v>
+      </c>
+      <c r="F118" s="5">
+        <v>2111</v>
+      </c>
+      <c r="G118" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="H118" t="s">
+        <v>11</v>
+      </c>
+      <c r="I118" t="s">
+        <v>12</v>
+      </c>
+      <c r="J118" t="s">
+        <v>155</v>
+      </c>
+      <c r="K118">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" s="5">
+        <v>1741</v>
+      </c>
+      <c r="E119" s="5">
+        <v>4</v>
+      </c>
+      <c r="F119" s="5">
+        <v>1745</v>
+      </c>
+      <c r="G119" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="H119" t="s">
+        <v>11</v>
+      </c>
+      <c r="I119" t="s">
+        <v>12</v>
+      </c>
+      <c r="J119" t="s">
+        <v>155</v>
+      </c>
+      <c r="K119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D120" s="5">
+        <v>866</v>
+      </c>
+      <c r="E120" s="5">
+        <v>6</v>
+      </c>
+      <c r="F120" s="5">
+        <v>872</v>
+      </c>
+      <c r="G120" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H120" t="s">
+        <v>11</v>
+      </c>
+      <c r="I120" t="s">
+        <v>12</v>
+      </c>
+      <c r="J120" t="s">
+        <v>155</v>
+      </c>
+      <c r="K120">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D121" s="5">
+        <v>738</v>
+      </c>
+      <c r="E121" s="5">
+        <v>2</v>
+      </c>
+      <c r="F121" s="5">
+        <v>740</v>
+      </c>
+      <c r="G121" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="H121" t="s">
+        <v>11</v>
+      </c>
+      <c r="I121" t="s">
+        <v>12</v>
+      </c>
+      <c r="J121" t="s">
+        <v>155</v>
+      </c>
+      <c r="K121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D122" s="5">
+        <v>718</v>
+      </c>
+      <c r="E122" s="5">
+        <v>1</v>
+      </c>
+      <c r="F122" s="5">
+        <v>719</v>
+      </c>
+      <c r="G122" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="H122" t="s">
+        <v>11</v>
+      </c>
+      <c r="I122" t="s">
+        <v>12</v>
+      </c>
+      <c r="J122" t="s">
+        <v>155</v>
+      </c>
+      <c r="K122">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D123" s="5">
+        <v>717</v>
+      </c>
+      <c r="E123" s="5">
+        <v>9</v>
+      </c>
+      <c r="F123" s="5">
+        <v>726</v>
+      </c>
+      <c r="G123" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="H123" t="s">
+        <v>11</v>
+      </c>
+      <c r="I123" t="s">
+        <v>12</v>
+      </c>
+      <c r="J123" t="s">
+        <v>155</v>
+      </c>
+      <c r="K123">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D124" s="5">
+        <v>628</v>
+      </c>
+      <c r="E124" s="5">
+        <v>7</v>
+      </c>
+      <c r="F124" s="5">
+        <v>635</v>
+      </c>
+      <c r="G124" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="H124" t="s">
+        <v>11</v>
+      </c>
+      <c r="I124" t="s">
+        <v>12</v>
+      </c>
+      <c r="J124" t="s">
+        <v>155</v>
+      </c>
+      <c r="K124">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D125" s="5">
+        <v>579</v>
+      </c>
+      <c r="E125" s="5">
+        <v>2</v>
+      </c>
+      <c r="F125" s="5">
+        <v>581</v>
+      </c>
+      <c r="G125" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="H125" t="s">
+        <v>11</v>
+      </c>
+      <c r="I125" t="s">
+        <v>12</v>
+      </c>
+      <c r="J125" t="s">
+        <v>155</v>
+      </c>
+      <c r="K125">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D126" s="5">
+        <v>502</v>
+      </c>
+      <c r="E126" s="5">
+        <v>3</v>
+      </c>
+      <c r="F126" s="5">
+        <v>505</v>
+      </c>
+      <c r="G126" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="H126" t="s">
+        <v>11</v>
+      </c>
+      <c r="I126" t="s">
+        <v>12</v>
+      </c>
+      <c r="J126" t="s">
+        <v>155</v>
+      </c>
+      <c r="K126">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="5">
+        <v>13418</v>
+      </c>
+      <c r="E127" s="5">
+        <v>100</v>
+      </c>
+      <c r="F127" s="5">
+        <v>13518</v>
+      </c>
+      <c r="G127" s="5">
+        <v>1.04</v>
+      </c>
+      <c r="H127" t="s">
+        <v>11</v>
+      </c>
+      <c r="I127" t="s">
+        <v>12</v>
+      </c>
+      <c r="J127" t="s">
+        <v>155</v>
+      </c>
+      <c r="K127">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
